--- a/APM files/139675497/139675497 EXPORT RT&RP Cloud.xlsx
+++ b/APM files/139675497/139675497 EXPORT RT&RP Cloud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/135460914/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\139675497\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C15489-F4FF-654A-AE54-344F2C1B6FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F649E53A-2F3D-4FB8-AD42-C297EA909028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1900" windowWidth="24300" windowHeight="14800" xr2:uid="{2547B3A6-92DE-4DC7-BA33-295CE429FBF9}"/>
+    <workbookView xWindow="7695" yWindow="1485" windowWidth="28800" windowHeight="15345" xr2:uid="{2547B3A6-92DE-4DC7-BA33-295CE429FBF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -194,724 +194,754 @@
     <t>Rate Plan Pricing Model</t>
   </si>
   <si>
-    <t>112056197</t>
-  </si>
-  <si>
-    <t>112056199</t>
-  </si>
-  <si>
-    <t>112056200</t>
-  </si>
-  <si>
-    <t>112056201</t>
-  </si>
-  <si>
-    <t>112056202</t>
-  </si>
-  <si>
-    <t>112056203</t>
-  </si>
-  <si>
-    <t>112056204</t>
-  </si>
-  <si>
-    <t>112056205</t>
-  </si>
-  <si>
-    <t>112056206</t>
-  </si>
-  <si>
-    <t>112056207</t>
-  </si>
-  <si>
-    <t>112056208</t>
-  </si>
-  <si>
-    <t>112056209</t>
-  </si>
-  <si>
-    <t>112056210</t>
-  </si>
-  <si>
-    <t>112056211</t>
-  </si>
-  <si>
-    <t>112056212</t>
-  </si>
-  <si>
-    <t>112056213</t>
-  </si>
-  <si>
-    <t>112056214</t>
-  </si>
-  <si>
-    <t>112056215</t>
-  </si>
-  <si>
-    <t>112056216</t>
-  </si>
-  <si>
-    <t>112056217</t>
-  </si>
-  <si>
-    <t>112056218</t>
-  </si>
-  <si>
-    <t>112056219</t>
-  </si>
-  <si>
-    <t>112056220</t>
-  </si>
-  <si>
-    <t>112056221</t>
-  </si>
-  <si>
-    <t>112056222</t>
-  </si>
-  <si>
-    <t>112056223</t>
-  </si>
-  <si>
-    <t>112056224</t>
-  </si>
-  <si>
-    <t>112056225</t>
-  </si>
-  <si>
-    <t>112056226</t>
-  </si>
-  <si>
-    <t>112056227</t>
-  </si>
-  <si>
-    <t>112056228</t>
-  </si>
-  <si>
-    <t>112056229</t>
-  </si>
-  <si>
-    <t>112056230</t>
-  </si>
-  <si>
-    <t>112056231</t>
-  </si>
-  <si>
-    <t>112056232</t>
-  </si>
-  <si>
-    <t>112056233</t>
-  </si>
-  <si>
-    <t>112056234</t>
-  </si>
-  <si>
-    <t>112056235</t>
-  </si>
-  <si>
-    <t>112056236</t>
-  </si>
-  <si>
-    <t>112056237</t>
-  </si>
-  <si>
-    <t>112056238</t>
-  </si>
-  <si>
-    <t>112056239</t>
-  </si>
-  <si>
-    <t>112056240</t>
-  </si>
-  <si>
-    <t>112056241</t>
-  </si>
-  <si>
-    <t>112056242</t>
-  </si>
-  <si>
-    <t>112056243</t>
-  </si>
-  <si>
-    <t>112056245</t>
-  </si>
-  <si>
-    <t>112056246</t>
-  </si>
-  <si>
-    <t>112056247</t>
-  </si>
-  <si>
-    <t>112056249</t>
-  </si>
-  <si>
-    <t>112056250</t>
-  </si>
-  <si>
-    <t>112056252</t>
-  </si>
-  <si>
-    <t>112056253</t>
-  </si>
-  <si>
-    <t>112056254</t>
-  </si>
-  <si>
-    <t>112056255</t>
-  </si>
-  <si>
-    <t>112056256</t>
-  </si>
-  <si>
-    <t>112056257</t>
-  </si>
-  <si>
-    <t>112056258</t>
-  </si>
-  <si>
-    <t>112056259</t>
-  </si>
-  <si>
-    <t>112056260</t>
-  </si>
-  <si>
-    <t>112056261</t>
-  </si>
-  <si>
-    <t>112056262</t>
-  </si>
-  <si>
-    <t>112056263</t>
-  </si>
-  <si>
-    <t>112056264</t>
-  </si>
-  <si>
-    <t>112056265</t>
-  </si>
-  <si>
-    <t>112056266</t>
-  </si>
-  <si>
-    <t>112056267</t>
-  </si>
-  <si>
-    <t>112056268</t>
-  </si>
-  <si>
-    <t>112056269</t>
-  </si>
-  <si>
-    <t>112056270</t>
-  </si>
-  <si>
-    <t>112056271</t>
-  </si>
-  <si>
-    <t>112056272</t>
-  </si>
-  <si>
-    <t>112056274</t>
-  </si>
-  <si>
-    <t>112056275</t>
-  </si>
-  <si>
-    <t>112056276</t>
-  </si>
-  <si>
-    <t>112056278</t>
-  </si>
-  <si>
-    <t>112056279</t>
-  </si>
-  <si>
-    <t>112056280</t>
-  </si>
-  <si>
-    <t>112056281</t>
-  </si>
-  <si>
-    <t>112056282</t>
-  </si>
-  <si>
-    <t>112056283</t>
-  </si>
-  <si>
-    <t>112056284</t>
-  </si>
-  <si>
-    <t>112056285</t>
-  </si>
-  <si>
-    <t>112056286</t>
-  </si>
-  <si>
-    <t>112056287</t>
-  </si>
-  <si>
-    <t>112056288</t>
-  </si>
-  <si>
-    <t>112056289</t>
-  </si>
-  <si>
-    <t>112056290</t>
-  </si>
-  <si>
-    <t>112056297</t>
-  </si>
-  <si>
-    <t>112056298</t>
-  </si>
-  <si>
-    <t>112056299</t>
-  </si>
-  <si>
-    <t>112056300</t>
-  </si>
-  <si>
-    <t>112056301</t>
-  </si>
-  <si>
-    <t>112056302</t>
-  </si>
-  <si>
-    <t>112056303</t>
-  </si>
-  <si>
-    <t>112056304</t>
-  </si>
-  <si>
-    <t>112056305</t>
-  </si>
-  <si>
-    <t>112056306</t>
-  </si>
-  <si>
-    <t>112056307</t>
-  </si>
-  <si>
-    <t>112056308</t>
-  </si>
-  <si>
-    <t>112056309</t>
-  </si>
-  <si>
-    <t>112056310</t>
-  </si>
-  <si>
-    <t>112056311</t>
-  </si>
-  <si>
-    <t>112056312</t>
-  </si>
-  <si>
-    <t>112056313</t>
-  </si>
-  <si>
-    <t>112056314</t>
-  </si>
-  <si>
-    <t>112056315</t>
-  </si>
-  <si>
-    <t>112056317</t>
-  </si>
-  <si>
-    <t>112056318</t>
-  </si>
-  <si>
-    <t>112056319</t>
-  </si>
-  <si>
-    <t>112056321</t>
-  </si>
-  <si>
-    <t>112056322</t>
-  </si>
-  <si>
-    <t>112056323</t>
-  </si>
-  <si>
-    <t>112056324</t>
-  </si>
-  <si>
-    <t>112056325</t>
-  </si>
-  <si>
-    <t>112056326</t>
-  </si>
-  <si>
-    <t>112056327</t>
-  </si>
-  <si>
-    <t>112056328</t>
-  </si>
-  <si>
-    <t>112056329</t>
-  </si>
-  <si>
-    <t>112056330</t>
-  </si>
-  <si>
-    <t>112056331</t>
-  </si>
-  <si>
-    <t>112056332</t>
-  </si>
-  <si>
-    <t>112056333</t>
-  </si>
-  <si>
-    <t>112056334</t>
-  </si>
-  <si>
-    <t>112056335</t>
-  </si>
-  <si>
-    <t>112056336</t>
-  </si>
-  <si>
-    <t>112056337</t>
-  </si>
-  <si>
-    <t>112056338</t>
-  </si>
-  <si>
-    <t>112056339</t>
-  </si>
-  <si>
-    <t>112056340</t>
-  </si>
-  <si>
-    <t>112056341</t>
-  </si>
-  <si>
-    <t>112056342</t>
-  </si>
-  <si>
-    <t>112056343</t>
-  </si>
-  <si>
-    <t>112056344</t>
-  </si>
-  <si>
-    <t>112056345</t>
-  </si>
-  <si>
-    <t>112056346</t>
-  </si>
-  <si>
-    <t>112056347</t>
-  </si>
-  <si>
-    <t>112056348</t>
-  </si>
-  <si>
-    <t>112056349</t>
-  </si>
-  <si>
-    <t>112056350</t>
-  </si>
-  <si>
-    <t>112056351</t>
-  </si>
-  <si>
-    <t>112056352</t>
-  </si>
-  <si>
-    <t>112056353</t>
-  </si>
-  <si>
-    <t>112056354</t>
-  </si>
-  <si>
-    <t>112056355</t>
-  </si>
-  <si>
-    <t>112056356</t>
-  </si>
-  <si>
-    <t>112056357</t>
-  </si>
-  <si>
-    <t>112056358</t>
-  </si>
-  <si>
-    <t>112056359</t>
-  </si>
-  <si>
-    <t>112056361</t>
-  </si>
-  <si>
-    <t>112056362</t>
-  </si>
-  <si>
-    <t>112056364</t>
-  </si>
-  <si>
-    <t>112056366</t>
-  </si>
-  <si>
-    <t>112056368</t>
-  </si>
-  <si>
-    <t>112056369</t>
-  </si>
-  <si>
-    <t>112056370</t>
-  </si>
-  <si>
-    <t>112056371</t>
-  </si>
-  <si>
-    <t>112056372</t>
-  </si>
-  <si>
-    <t>112056373</t>
-  </si>
-  <si>
-    <t>112056374</t>
-  </si>
-  <si>
-    <t>112056375</t>
-  </si>
-  <si>
-    <t>112056376</t>
-  </si>
-  <si>
-    <t>112056377</t>
-  </si>
-  <si>
-    <t>112056378</t>
-  </si>
-  <si>
-    <t>112056379</t>
-  </si>
-  <si>
-    <t>112056380</t>
-  </si>
-  <si>
-    <t>112056381</t>
-  </si>
-  <si>
-    <t>112056382</t>
-  </si>
-  <si>
-    <t>112056383</t>
-  </si>
-  <si>
-    <t>112056384</t>
-  </si>
-  <si>
-    <t>112056385</t>
-  </si>
-  <si>
-    <t>112056387</t>
-  </si>
-  <si>
-    <t>112056389</t>
-  </si>
-  <si>
-    <t>112056390</t>
-  </si>
-  <si>
-    <t>112056392</t>
-  </si>
-  <si>
-    <t>112056393</t>
-  </si>
-  <si>
-    <t>112056394</t>
-  </si>
-  <si>
-    <t>112056395</t>
-  </si>
-  <si>
-    <t>112056396</t>
-  </si>
-  <si>
-    <t>112056397</t>
-  </si>
-  <si>
-    <t>112056398</t>
-  </si>
-  <si>
-    <t>112056399</t>
-  </si>
-  <si>
-    <t>112056400</t>
-  </si>
-  <si>
-    <t>112056401</t>
-  </si>
-  <si>
-    <t>112056402</t>
-  </si>
-  <si>
-    <t>112056403</t>
-  </si>
-  <si>
-    <t>112056404</t>
-  </si>
-  <si>
-    <t>112056405</t>
-  </si>
-  <si>
-    <t>112056406</t>
-  </si>
-  <si>
-    <t>112056407</t>
-  </si>
-  <si>
-    <t>112056408</t>
-  </si>
-  <si>
-    <t>112056409</t>
-  </si>
-  <si>
-    <t>112056410</t>
-  </si>
-  <si>
-    <t>112056411</t>
-  </si>
-  <si>
-    <t>112056412</t>
-  </si>
-  <si>
-    <t>112056413</t>
-  </si>
-  <si>
-    <t>112056414</t>
-  </si>
-  <si>
-    <t>112056415</t>
-  </si>
-  <si>
-    <t>112056417</t>
-  </si>
-  <si>
-    <t>112056418</t>
-  </si>
-  <si>
-    <t>112056419</t>
-  </si>
-  <si>
-    <t>112056421</t>
-  </si>
-  <si>
-    <t>112056422</t>
-  </si>
-  <si>
-    <t>112056423</t>
-  </si>
-  <si>
-    <t>112056424</t>
-  </si>
-  <si>
-    <t>112056425</t>
-  </si>
-  <si>
-    <t>112056426</t>
-  </si>
-  <si>
-    <t>112056427</t>
-  </si>
-  <si>
-    <t>112056428</t>
-  </si>
-  <si>
-    <t>112056429</t>
-  </si>
-  <si>
-    <t>112056431</t>
-  </si>
-  <si>
-    <t>112056432</t>
-  </si>
-  <si>
-    <t>112056434</t>
-  </si>
-  <si>
-    <t>112056435</t>
-  </si>
-  <si>
-    <t>112056436</t>
-  </si>
-  <si>
-    <t>112056437</t>
-  </si>
-  <si>
-    <t>112056438</t>
-  </si>
-  <si>
-    <t>112056439</t>
-  </si>
-  <si>
-    <t>112056440</t>
-  </si>
-  <si>
-    <t>112056441</t>
-  </si>
-  <si>
-    <t>112056442</t>
-  </si>
-  <si>
-    <t>112056443</t>
-  </si>
-  <si>
-    <t>112056444</t>
-  </si>
-  <si>
-    <t>112056445</t>
-  </si>
-  <si>
-    <t>112056446</t>
-  </si>
-  <si>
-    <t>112056447</t>
-  </si>
-  <si>
-    <t>112056448</t>
-  </si>
-  <si>
-    <t>112056449</t>
-  </si>
-  <si>
-    <t>112056456</t>
-  </si>
-  <si>
-    <t>112056457</t>
-  </si>
-  <si>
-    <t>112056458</t>
-  </si>
-  <si>
-    <t>112056459</t>
-  </si>
-  <si>
-    <t>112056460</t>
-  </si>
-  <si>
-    <t>112056461</t>
-  </si>
-  <si>
-    <t>112056462</t>
-  </si>
-  <si>
-    <t>112056463</t>
-  </si>
-  <si>
-    <t>112056464</t>
-  </si>
-  <si>
-    <t>112056465</t>
-  </si>
-  <si>
-    <t>112056466</t>
-  </si>
-  <si>
-    <t>112056467</t>
+    <t>116350922</t>
+  </si>
+  <si>
+    <t>116350928</t>
+  </si>
+  <si>
+    <t>116350929</t>
+  </si>
+  <si>
+    <t>116350930</t>
+  </si>
+  <si>
+    <t>116350934</t>
+  </si>
+  <si>
+    <t>116350935</t>
+  </si>
+  <si>
+    <t>116350936</t>
+  </si>
+  <si>
+    <t>116350939</t>
+  </si>
+  <si>
+    <t>116350940</t>
+  </si>
+  <si>
+    <t>116350943</t>
+  </si>
+  <si>
+    <t>116350944</t>
+  </si>
+  <si>
+    <t>116350946</t>
+  </si>
+  <si>
+    <t>116350948</t>
+  </si>
+  <si>
+    <t>116350949</t>
+  </si>
+  <si>
+    <t>116350950</t>
+  </si>
+  <si>
+    <t>116350953</t>
+  </si>
+  <si>
+    <t>116350955</t>
+  </si>
+  <si>
+    <t>116350956</t>
+  </si>
+  <si>
+    <t>116350957</t>
+  </si>
+  <si>
+    <t>116350958</t>
+  </si>
+  <si>
+    <t>116350960</t>
+  </si>
+  <si>
+    <t>116350963</t>
+  </si>
+  <si>
+    <t>116350964</t>
+  </si>
+  <si>
+    <t>116350966</t>
+  </si>
+  <si>
+    <t>116350967</t>
+  </si>
+  <si>
+    <t>116350968</t>
+  </si>
+  <si>
+    <t>116350971</t>
+  </si>
+  <si>
+    <t>116350973</t>
+  </si>
+  <si>
+    <t>116350974</t>
+  </si>
+  <si>
+    <t>116350975</t>
+  </si>
+  <si>
+    <t>116350976</t>
+  </si>
+  <si>
+    <t>116350979</t>
+  </si>
+  <si>
+    <t>116350981</t>
+  </si>
+  <si>
+    <t>116350982</t>
+  </si>
+  <si>
+    <t>116350983</t>
+  </si>
+  <si>
+    <t>116350984</t>
+  </si>
+  <si>
+    <t>116350986</t>
+  </si>
+  <si>
+    <t>116350988</t>
+  </si>
+  <si>
+    <t>116350989</t>
+  </si>
+  <si>
+    <t>116350991</t>
+  </si>
+  <si>
+    <t>116350992</t>
+  </si>
+  <si>
+    <t>116350994</t>
+  </si>
+  <si>
+    <t>116350996</t>
+  </si>
+  <si>
+    <t>116350997</t>
+  </si>
+  <si>
+    <t>116350999</t>
+  </si>
+  <si>
+    <t>116351001</t>
+  </si>
+  <si>
+    <t>116351003</t>
+  </si>
+  <si>
+    <t>116351005</t>
+  </si>
+  <si>
+    <t>116351006</t>
+  </si>
+  <si>
+    <t>116351008</t>
+  </si>
+  <si>
+    <t>116351011</t>
+  </si>
+  <si>
+    <t>116351013</t>
+  </si>
+  <si>
+    <t>116351014</t>
+  </si>
+  <si>
+    <t>116351017</t>
+  </si>
+  <si>
+    <t>116351018</t>
+  </si>
+  <si>
+    <t>116351020</t>
+  </si>
+  <si>
+    <t>116351021</t>
+  </si>
+  <si>
+    <t>116351024</t>
+  </si>
+  <si>
+    <t>116351025</t>
+  </si>
+  <si>
+    <t>116351026</t>
+  </si>
+  <si>
+    <t>116351029</t>
+  </si>
+  <si>
+    <t>116351031</t>
+  </si>
+  <si>
+    <t>116351032</t>
+  </si>
+  <si>
+    <t>116351034</t>
+  </si>
+  <si>
+    <t>116351035</t>
+  </si>
+  <si>
+    <t>116351038</t>
+  </si>
+  <si>
+    <t>116351039</t>
+  </si>
+  <si>
+    <t>116351040</t>
+  </si>
+  <si>
+    <t>116351042</t>
+  </si>
+  <si>
+    <t>116351044</t>
+  </si>
+  <si>
+    <t>116351046</t>
+  </si>
+  <si>
+    <t>116351048</t>
+  </si>
+  <si>
+    <t>116351049</t>
+  </si>
+  <si>
+    <t>116351052</t>
+  </si>
+  <si>
+    <t>116351053</t>
+  </si>
+  <si>
+    <t>116351056</t>
+  </si>
+  <si>
+    <t>116351059</t>
+  </si>
+  <si>
+    <t>116351060</t>
+  </si>
+  <si>
+    <t>116351061</t>
+  </si>
+  <si>
+    <t>116351064</t>
+  </si>
+  <si>
+    <t>116351066</t>
+  </si>
+  <si>
+    <t>116351069</t>
+  </si>
+  <si>
+    <t>116351070</t>
+  </si>
+  <si>
+    <t>116351072</t>
+  </si>
+  <si>
+    <t>116351075</t>
+  </si>
+  <si>
+    <t>116351076</t>
+  </si>
+  <si>
+    <t>116351077</t>
+  </si>
+  <si>
+    <t>116351079</t>
+  </si>
+  <si>
+    <t>116351081</t>
+  </si>
+  <si>
+    <t>116351082</t>
+  </si>
+  <si>
+    <t>116351083</t>
+  </si>
+  <si>
+    <t>116351084</t>
+  </si>
+  <si>
+    <t>116351085</t>
+  </si>
+  <si>
+    <t>116351087</t>
+  </si>
+  <si>
+    <t>116351088</t>
+  </si>
+  <si>
+    <t>116351090</t>
+  </si>
+  <si>
+    <t>116351092</t>
+  </si>
+  <si>
+    <t>116351093</t>
+  </si>
+  <si>
+    <t>116351094</t>
+  </si>
+  <si>
+    <t>116351095</t>
+  </si>
+  <si>
+    <t>116351097</t>
+  </si>
+  <si>
+    <t>116351100</t>
+  </si>
+  <si>
+    <t>116351101</t>
+  </si>
+  <si>
+    <t>116351102</t>
+  </si>
+  <si>
+    <t>116351104</t>
+  </si>
+  <si>
+    <t>116351106</t>
+  </si>
+  <si>
+    <t>116351107</t>
+  </si>
+  <si>
+    <t>116351109</t>
+  </si>
+  <si>
+    <t>116351111</t>
+  </si>
+  <si>
+    <t>116351113</t>
+  </si>
+  <si>
+    <t>116351115</t>
+  </si>
+  <si>
+    <t>116351116</t>
+  </si>
+  <si>
+    <t>116351120</t>
+  </si>
+  <si>
+    <t>116351121</t>
+  </si>
+  <si>
+    <t>116351123</t>
+  </si>
+  <si>
+    <t>116351125</t>
+  </si>
+  <si>
+    <t>116351127</t>
+  </si>
+  <si>
+    <t>116351128</t>
+  </si>
+  <si>
+    <t>116351130</t>
+  </si>
+  <si>
+    <t>116351132</t>
+  </si>
+  <si>
+    <t>116351134</t>
+  </si>
+  <si>
+    <t>116351136</t>
+  </si>
+  <si>
+    <t>116351138</t>
+  </si>
+  <si>
+    <t>116351139</t>
+  </si>
+  <si>
+    <t>116351141</t>
+  </si>
+  <si>
+    <t>116351142</t>
+  </si>
+  <si>
+    <t>116351144</t>
+  </si>
+  <si>
+    <t>116351146</t>
+  </si>
+  <si>
+    <t>116351147</t>
+  </si>
+  <si>
+    <t>116351150</t>
+  </si>
+  <si>
+    <t>116351151</t>
+  </si>
+  <si>
+    <t>116351153</t>
+  </si>
+  <si>
+    <t>116351155</t>
+  </si>
+  <si>
+    <t>116351157</t>
+  </si>
+  <si>
+    <t>116351158</t>
+  </si>
+  <si>
+    <t>116351159</t>
+  </si>
+  <si>
+    <t>116351161</t>
+  </si>
+  <si>
+    <t>116351162</t>
+  </si>
+  <si>
+    <t>116351163</t>
+  </si>
+  <si>
+    <t>116351165</t>
+  </si>
+  <si>
+    <t>116351167</t>
+  </si>
+  <si>
+    <t>116351168</t>
+  </si>
+  <si>
+    <t>116351170</t>
+  </si>
+  <si>
+    <t>116351171</t>
+  </si>
+  <si>
+    <t>116351172</t>
+  </si>
+  <si>
+    <t>116351175</t>
+  </si>
+  <si>
+    <t>116351176</t>
+  </si>
+  <si>
+    <t>116351178</t>
+  </si>
+  <si>
+    <t>116351179</t>
+  </si>
+  <si>
+    <t>116351181</t>
+  </si>
+  <si>
+    <t>116351182</t>
+  </si>
+  <si>
+    <t>116351183</t>
+  </si>
+  <si>
+    <t>116351184</t>
+  </si>
+  <si>
+    <t>116351186</t>
+  </si>
+  <si>
+    <t>116351187</t>
+  </si>
+  <si>
+    <t>116351188</t>
+  </si>
+  <si>
+    <t>116351191</t>
+  </si>
+  <si>
+    <t>116351192</t>
+  </si>
+  <si>
+    <t>116351193</t>
+  </si>
+  <si>
+    <t>116351194</t>
+  </si>
+  <si>
+    <t>116351195</t>
+  </si>
+  <si>
+    <t>116351198</t>
+  </si>
+  <si>
+    <t>116351199</t>
+  </si>
+  <si>
+    <t>116351200</t>
+  </si>
+  <si>
+    <t>116351201</t>
+  </si>
+  <si>
+    <t>116351202</t>
+  </si>
+  <si>
+    <t>116351203</t>
+  </si>
+  <si>
+    <t>116351204</t>
+  </si>
+  <si>
+    <t>116351206</t>
+  </si>
+  <si>
+    <t>116351208</t>
+  </si>
+  <si>
+    <t>116351209</t>
+  </si>
+  <si>
+    <t>116351210</t>
+  </si>
+  <si>
+    <t>116351212</t>
+  </si>
+  <si>
+    <t>116351213</t>
+  </si>
+  <si>
+    <t>116351215</t>
+  </si>
+  <si>
+    <t>116351216</t>
+  </si>
+  <si>
+    <t>116351218</t>
+  </si>
+  <si>
+    <t>116351219</t>
+  </si>
+  <si>
+    <t>116351221</t>
+  </si>
+  <si>
+    <t>116351222</t>
+  </si>
+  <si>
+    <t>116351223</t>
+  </si>
+  <si>
+    <t>116351226</t>
+  </si>
+  <si>
+    <t>116351227</t>
+  </si>
+  <si>
+    <t>116351228</t>
+  </si>
+  <si>
+    <t>116351229</t>
+  </si>
+  <si>
+    <t>116351231</t>
+  </si>
+  <si>
+    <t>116351233</t>
+  </si>
+  <si>
+    <t>116351234</t>
+  </si>
+  <si>
+    <t>116351236</t>
+  </si>
+  <si>
+    <t>116351237</t>
+  </si>
+  <si>
+    <t>116351238</t>
+  </si>
+  <si>
+    <t>116351240</t>
+  </si>
+  <si>
+    <t>116351242</t>
+  </si>
+  <si>
+    <t>116351243</t>
+  </si>
+  <si>
+    <t>116351245</t>
+  </si>
+  <si>
+    <t>116351247</t>
+  </si>
+  <si>
+    <t>116351249</t>
+  </si>
+  <si>
+    <t>116351250</t>
+  </si>
+  <si>
+    <t>116351253</t>
+  </si>
+  <si>
+    <t>116351254</t>
+  </si>
+  <si>
+    <t>116351255</t>
+  </si>
+  <si>
+    <t>116351257</t>
+  </si>
+  <si>
+    <t>116351259</t>
+  </si>
+  <si>
+    <t>116351261</t>
+  </si>
+  <si>
+    <t>116351262</t>
+  </si>
+  <si>
+    <t>116351264</t>
+  </si>
+  <si>
+    <t>116351265</t>
+  </si>
+  <si>
+    <t>116351267</t>
+  </si>
+  <si>
+    <t>116351268</t>
+  </si>
+  <si>
+    <t>116351270</t>
+  </si>
+  <si>
+    <t>116351272</t>
+  </si>
+  <si>
+    <t>116351273</t>
+  </si>
+  <si>
+    <t>116351274</t>
+  </si>
+  <si>
+    <t>116351276</t>
+  </si>
+  <si>
+    <t>116351277</t>
+  </si>
+  <si>
+    <t>116351278</t>
+  </si>
+  <si>
+    <t>116351280</t>
+  </si>
+  <si>
+    <t>116351281</t>
+  </si>
+  <si>
+    <t>116351283</t>
+  </si>
+  <si>
+    <t>116351284</t>
+  </si>
+  <si>
+    <t>116351286</t>
+  </si>
+  <si>
+    <t>116351289</t>
+  </si>
+  <si>
+    <t>116351290</t>
+  </si>
+  <si>
+    <t>116351292</t>
+  </si>
+  <si>
+    <t>116351294</t>
+  </si>
+  <si>
+    <t>116351295</t>
+  </si>
+  <si>
+    <t>116351297</t>
+  </si>
+  <si>
+    <t>116351299</t>
+  </si>
+  <si>
+    <t>116351300</t>
+  </si>
+  <si>
+    <t>116351301</t>
+  </si>
+  <si>
+    <t>116351303</t>
+  </si>
+  <si>
+    <t>116351304</t>
+  </si>
+  <si>
+    <t>116351305</t>
+  </si>
+  <si>
+    <t>116351307</t>
+  </si>
+  <si>
+    <t>116351308</t>
+  </si>
+  <si>
+    <t>116351311</t>
+  </si>
+  <si>
+    <t>116351312</t>
+  </si>
+  <si>
+    <t>116351313</t>
+  </si>
+  <si>
+    <t>116351314</t>
+  </si>
+  <si>
+    <t>116351316</t>
+  </si>
+  <si>
+    <t>116351318</t>
+  </si>
+  <si>
+    <t>116351319</t>
+  </si>
+  <si>
+    <t>116351320</t>
+  </si>
+  <si>
+    <t>116351321</t>
+  </si>
+  <si>
+    <t>116351324</t>
+  </si>
+  <si>
+    <t>116351326</t>
+  </si>
+  <si>
+    <t>116351327</t>
+  </si>
+  <si>
+    <t>116351328</t>
+  </si>
+  <si>
+    <t>116351329</t>
+  </si>
+  <si>
+    <t>116351332</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1029,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1320,64 +1360,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C0776E-D31D-4196-98AA-2098101953BE}">
-  <dimension ref="A1:BA241"/>
+  <dimension ref="A1:BA251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="29" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="20" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="17" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="20" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="18" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1536,1210 +1576,1266 @@
       </c>
       <c r="BA1" s="5"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>291</v>
       </c>
     </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A34">
+  <conditionalFormatting sqref="A2:A251">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{03ef5274-90b8-4b3f-8a76-b4c36a43e904}" enabled="1" method="Standard" siteId="{61e6eeb3-5fd7-4aaa-ae3c-61e8deb09b79}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>